--- a/Other/LitertureReviewAnalysis.xlsx
+++ b/Other/LitertureReviewAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\GitHub\Master-Thesis\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3EF8C7-9AE9-41D1-A730-D2A16CB98D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B753C7-9DD8-4130-B631-CC7EB3FAB6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{16560DE6-A210-44F5-A030-995C23AE4DFD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{16560DE6-A210-44F5-A030-995C23AE4DFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="130">
   <si>
     <t>Relevant Articles</t>
   </si>
@@ -260,9 +260,6 @@
     <t>Bottleneck detection</t>
   </si>
   <si>
-    <t>1,4,33</t>
-  </si>
-  <si>
     <t>boosted regression tree</t>
   </si>
   <si>
@@ -317,9 +314,6 @@
     <t>Models/Functions Mentioned (negative light)</t>
   </si>
   <si>
-    <t>1,3,6,14</t>
-  </si>
-  <si>
     <t>State of Health</t>
   </si>
   <si>
@@ -368,9 +362,6 @@
     <t>Project Euclid</t>
   </si>
   <si>
-    <t>3,4,33,8,14,15</t>
-  </si>
-  <si>
     <t>Vector Auto-regresive</t>
   </si>
   <si>
@@ -383,15 +374,6 @@
     <t>Anomaly Detection</t>
   </si>
   <si>
-    <t>1,3,4,16</t>
-  </si>
-  <si>
-    <t>33,8,14,16</t>
-  </si>
-  <si>
-    <t>1,3,6,33,14,15,16</t>
-  </si>
-  <si>
     <t>medigating false positives and negatives</t>
   </si>
   <si>
@@ -399,6 +381,51 @@
   </si>
   <si>
     <t>Unavailable</t>
+  </si>
+  <si>
+    <t>3,4,33,8,14,15,20</t>
+  </si>
+  <si>
+    <t>Accruacy</t>
+  </si>
+  <si>
+    <t>Stability</t>
+  </si>
+  <si>
+    <t>1,3,6,33,14,15,16,20</t>
+  </si>
+  <si>
+    <t>33,8,14,16,20</t>
+  </si>
+  <si>
+    <t>Feature Reduction</t>
+  </si>
+  <si>
+    <t>Genetic Algorithm</t>
+  </si>
+  <si>
+    <t>1,3,6,14,20</t>
+  </si>
+  <si>
+    <t>wavelet neural networks</t>
+  </si>
+  <si>
+    <t>Fuzzy neaural networks</t>
+  </si>
+  <si>
+    <t>1,3,4,16,20</t>
+  </si>
+  <si>
+    <t>1,4,33,20</t>
+  </si>
+  <si>
+    <t>Gradient Bootsting</t>
+  </si>
+  <si>
+    <t>Extra Trees</t>
+  </si>
+  <si>
+    <t>Ridge Regression</t>
   </si>
 </sst>
 </file>
@@ -512,12 +539,12 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -853,25 +880,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD066C08-567F-4D3F-A031-BC570CDF19D6}">
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="37.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -879,13 +906,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -893,10 +920,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -904,10 +931,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -915,10 +942,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -926,10 +953,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -937,10 +964,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -948,10 +975,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -959,10 +986,10 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -970,10 +997,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -981,10 +1008,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -992,13 +1019,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1006,10 +1033,10 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1017,10 +1044,10 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1028,10 +1055,10 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1039,10 +1066,10 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1050,13 +1077,13 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1064,24 +1091,24 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>119</v>
+      <c r="C18" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1089,10 +1116,10 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1100,21 +1127,21 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1122,10 +1149,10 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1133,10 +1160,10 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1144,10 +1171,10 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1155,10 +1182,10 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1166,10 +1193,10 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1177,10 +1204,10 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1188,10 +1215,10 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1199,10 +1226,10 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1210,10 +1237,10 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1221,10 +1248,10 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1232,10 +1259,10 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1243,15 +1270,15 @@
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1259,7 +1286,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1267,7 +1294,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1275,7 +1302,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1283,7 +1310,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1291,7 +1318,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1299,7 +1326,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1307,7 +1334,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1315,66 +1342,66 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="6"/>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="7"/>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="8"/>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A50" s="12"/>
+      <c r="B50" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>42</v>
       </c>
@@ -1385,7 +1412,7 @@
         <v>45</v>
       </c>
       <c r="E51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F51" t="s">
         <v>44</v>
@@ -1394,7 +1421,7 @@
         <v>45</v>
       </c>
       <c r="I51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J51" t="s">
         <v>44</v>
@@ -1406,7 +1433,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>47</v>
       </c>
@@ -1426,13 +1453,13 @@
         <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J52">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -1446,19 +1473,19 @@
         <v>50</v>
       </c>
       <c r="F53" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="G53">
         <v>3</v>
       </c>
       <c r="I53" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J53">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -1472,19 +1499,19 @@
         <v>51</v>
       </c>
       <c r="F54" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G54">
         <v>4</v>
       </c>
       <c r="I54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J54">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -1504,12 +1531,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1518,13 +1545,13 @@
         <v>53</v>
       </c>
       <c r="F56" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G56">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -1538,13 +1565,13 @@
         <v>54</v>
       </c>
       <c r="F57" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="G57">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -1564,9 +1591,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B59">
         <v>6.16</v>
@@ -1584,9 +1611,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B60">
         <v>6</v>
@@ -1604,9 +1631,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B61">
         <v>14</v>
@@ -1621,9 +1648,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B62">
         <v>14</v>
@@ -1632,21 +1659,21 @@
         <v>72</v>
       </c>
       <c r="F62" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G62">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B63">
         <v>14</v>
       </c>
       <c r="E63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F63">
         <v>33</v>
@@ -1655,32 +1682,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B64">
         <v>16</v>
       </c>
       <c r="E64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F64" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G64">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B65">
         <v>16</v>
       </c>
       <c r="E65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F65">
         <v>33.799999999999997</v>
@@ -1689,9 +1716,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66">
+        <v>20</v>
+      </c>
       <c r="E66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F66">
         <v>6</v>
@@ -1700,9 +1733,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>117</v>
+      </c>
+      <c r="B67">
+        <v>20</v>
+      </c>
       <c r="E67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F67">
         <v>6</v>
@@ -1711,20 +1750,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68">
+        <v>20</v>
+      </c>
       <c r="E68" t="s">
+        <v>81</v>
+      </c>
+      <c r="F68">
+        <v>6.2</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E69" t="s">
         <v>82</v>
-      </c>
-      <c r="F68">
-        <v>6</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E69" t="s">
-        <v>83</v>
       </c>
       <c r="F69">
         <v>6</v>
@@ -1733,9 +1778,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F70">
         <v>8.15</v>
@@ -1744,9 +1789,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F71">
         <v>8</v>
@@ -1755,9 +1800,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E72" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F72">
         <v>14</v>
@@ -1766,9 +1811,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E73" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F73">
         <v>14</v>
@@ -1777,9 +1822,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E74" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F74">
         <v>14</v>
@@ -1788,9 +1833,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E75" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F75">
         <v>14</v>
@@ -1799,9 +1844,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E76" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F76">
         <v>14</v>
@@ -1810,9 +1855,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E77" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F77">
         <v>15</v>
@@ -1821,9 +1866,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E78" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F78">
         <v>15</v>
@@ -1832,14 +1877,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>121</v>
+      </c>
+      <c r="F79">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>71</v>
+      </c>
+      <c r="E80" t="s">
+        <v>123</v>
+      </c>
+      <c r="F80">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E81" t="s">
+        <v>124</v>
+      </c>
+      <c r="F81">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E82" t="s">
+        <v>127</v>
+      </c>
+      <c r="F82">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E83" t="s">
+        <v>128</v>
+      </c>
+      <c r="F83">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E84" t="s">
+        <v>129</v>
+      </c>
+      <c r="F84">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Other/LitertureReviewAnalysis.xlsx
+++ b/Other/LitertureReviewAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\GitHub\Master-Thesis\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B753C7-9DD8-4130-B631-CC7EB3FAB6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97B43ED-05B6-449E-814A-220985BF292F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{16560DE6-A210-44F5-A030-995C23AE4DFD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="131">
   <si>
     <t>Relevant Articles</t>
   </si>
@@ -426,6 +426,9 @@
   </si>
   <si>
     <t>Ridge Regression</t>
+  </si>
+  <si>
+    <t>Rigtig god, har validity threat, og litterture review med</t>
   </si>
 </sst>
 </file>
@@ -882,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD066C08-567F-4D3F-A031-BC570CDF19D6}">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1137,6 +1140,9 @@
       <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="C21" t="s">
+        <v>130</v>
+      </c>
       <c r="D21" t="s">
         <v>104</v>
       </c>
@@ -1145,7 +1151,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D22" t="s">

--- a/Other/LitertureReviewAnalysis.xlsx
+++ b/Other/LitertureReviewAnalysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\GitHub\Master-Thesis\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97B43ED-05B6-449E-814A-220985BF292F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28C74D5-2833-499D-88C6-756D8BD04265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{16560DE6-A210-44F5-A030-995C23AE4DFD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{16560DE6-A210-44F5-A030-995C23AE4DFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="176">
   <si>
     <t>Relevant Articles</t>
   </si>
@@ -206,9 +206,6 @@
     <t>Colour codes</t>
   </si>
   <si>
-    <t>valuable for related work</t>
-  </si>
-  <si>
     <t>Accepted</t>
   </si>
   <si>
@@ -233,9 +230,6 @@
     <t>Autoencoder</t>
   </si>
   <si>
-    <t>1,2,3</t>
-  </si>
-  <si>
     <t>Support Vector Regression</t>
   </si>
   <si>
@@ -293,9 +287,6 @@
     <t>RELU function</t>
   </si>
   <si>
-    <t>link doesn't work atm</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -383,30 +374,18 @@
     <t>Unavailable</t>
   </si>
   <si>
-    <t>3,4,33,8,14,15,20</t>
-  </si>
-  <si>
     <t>Accruacy</t>
   </si>
   <si>
     <t>Stability</t>
   </si>
   <si>
-    <t>1,3,6,33,14,15,16,20</t>
-  </si>
-  <si>
-    <t>33,8,14,16,20</t>
-  </si>
-  <si>
     <t>Feature Reduction</t>
   </si>
   <si>
     <t>Genetic Algorithm</t>
   </si>
   <si>
-    <t>1,3,6,14,20</t>
-  </si>
-  <si>
     <t>wavelet neural networks</t>
   </si>
   <si>
@@ -416,9 +395,6 @@
     <t>1,3,4,16,20</t>
   </si>
   <si>
-    <t>1,4,33,20</t>
-  </si>
-  <si>
     <t>Gradient Bootsting</t>
   </si>
   <si>
@@ -429,6 +405,165 @@
   </si>
   <si>
     <t>Rigtig god, har validity threat, og litterture review med</t>
+  </si>
+  <si>
+    <t>interesant for sprog analyse</t>
+  </si>
+  <si>
+    <t>autoregressive</t>
+  </si>
+  <si>
+    <t>3,8,27</t>
+  </si>
+  <si>
+    <t>Fine for having statistics on stuff, but is not otherwise usfull</t>
+  </si>
+  <si>
+    <t>1,8,29</t>
+  </si>
+  <si>
+    <t>3,4,33,8,14,15,20,27,29</t>
+  </si>
+  <si>
+    <t>Markov Chain</t>
+  </si>
+  <si>
+    <t>The posterior mean</t>
+  </si>
+  <si>
+    <t>Fint skrevet, bare… weird'</t>
+  </si>
+  <si>
+    <t>Fault Prediction</t>
+  </si>
+  <si>
+    <t>1,29,30</t>
+  </si>
+  <si>
+    <t>1,2,3,29,30</t>
+  </si>
+  <si>
+    <t>Ensemble learners</t>
+  </si>
+  <si>
+    <t>Rule based learning</t>
+  </si>
+  <si>
+    <t>Evolutionary algorithms</t>
+  </si>
+  <si>
+    <t>Inkluderet steder med datasets</t>
+  </si>
+  <si>
+    <t>F-Measure</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>30 is a slr</t>
+  </si>
+  <si>
+    <t>Attempt to get a later date</t>
+  </si>
+  <si>
+    <t>Program Analysis</t>
+  </si>
+  <si>
+    <t>Vulnerbility Detection</t>
+  </si>
+  <si>
+    <t>1,3,6,14,20,30,32</t>
+  </si>
+  <si>
+    <t>1,4,33,20,32</t>
+  </si>
+  <si>
+    <t>33,8,27,32</t>
+  </si>
+  <si>
+    <t>1,3,6,33,14,15,16,20,23,30,32,35</t>
+  </si>
+  <si>
+    <t>33,8,14,16,20,23,27,32,35</t>
+  </si>
+  <si>
+    <t>33,8,14,16,20,27,35</t>
+  </si>
+  <si>
+    <t>20;30,36</t>
+  </si>
+  <si>
+    <t>20,27,29,30,32,36</t>
+  </si>
+  <si>
+    <t>HMM</t>
+  </si>
+  <si>
+    <t>valuable for related work (may use in related work section)</t>
+  </si>
+  <si>
+    <t>God, men skal nok læses flere gange hvis man vil have fuld forståelse af deres resultat</t>
+  </si>
+  <si>
+    <t>2nd. Analysis</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>ACM DL</t>
+  </si>
+  <si>
+    <t>https://dl-acm-org.proxy1-bib.sdu.dk/doi/10.1145/2601097.2601108</t>
+  </si>
+  <si>
+    <t>https://dl-acm-org.proxy1-bib.sdu.dk/doi/10.1145/2980179.2982431</t>
+  </si>
+  <si>
+    <t>https://dl-acm-org.proxy1-bib.sdu.dk/doi/10.1145/3466641</t>
+  </si>
+  <si>
+    <t>https://dl-acm-org.proxy1-bib.sdu.dk/doi/10.1145/3371315</t>
+  </si>
+  <si>
+    <t>https://dl-acm-org.proxy1-bib.sdu.dk/doi/10.1145/3388538</t>
+  </si>
+  <si>
+    <t>https://dl-acm-org.proxy1-bib.sdu.dk/doi/10.1145/3644075</t>
+  </si>
+  <si>
+    <t>https://dl-acm-org.proxy1-bib.sdu.dk/doi/10.1145/3154401</t>
+  </si>
+  <si>
+    <t>https://dl-acm-org.proxy1-bib.sdu.dk/doi/10.1145/3564930</t>
+  </si>
+  <si>
+    <t>https://dl-acm-org.proxy1-bib.sdu.dk/doi/10.1145/3589286</t>
+  </si>
+  <si>
+    <t>https://dl-acm-org.proxy1-bib.sdu.dk/doi/10.1145/3650046</t>
+  </si>
+  <si>
+    <t>https://dl-acm-org.proxy1-bib.sdu.dk/doi/10.1145/3627994</t>
+  </si>
+  <si>
+    <t>https://dl-acm-org.proxy1-bib.sdu.dk/doi/10.14778/3648160.3648162</t>
+  </si>
+  <si>
+    <t>https://dl-acm-org.proxy1-bib.sdu.dk/doi/10.1145/3702315</t>
+  </si>
+  <si>
+    <t>I hate that they call it PRO-HEAPS</t>
+  </si>
+  <si>
+    <t>Ikke så god til hvad jeg vil arbejde med, men kunne tages op hvis der er ekstra tid I projektet</t>
+  </si>
+  <si>
+    <t>I have to reread to determine usefullness, the language in uneassery complex</t>
   </si>
 </sst>
 </file>
@@ -883,25 +1018,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD066C08-567F-4D3F-A031-BC570CDF19D6}">
-  <dimension ref="A1:M84"/>
+  <dimension ref="A1:M120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.54296875" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -909,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -923,10 +1058,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -934,10 +1069,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -945,10 +1080,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -956,10 +1091,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -967,10 +1102,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -978,10 +1113,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -989,10 +1124,10 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1000,10 +1135,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1011,10 +1146,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1022,13 +1157,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1036,10 +1171,10 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1047,10 +1182,10 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1058,10 +1193,10 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1069,10 +1204,10 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1080,13 +1215,13 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1094,10 +1229,10 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1105,13 +1240,13 @@
         <v>17</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1119,10 +1254,10 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1130,10 +1265,10 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1141,13 +1276,13 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1155,10 +1290,10 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1166,21 +1301,24 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="C24" t="s">
+        <v>123</v>
+      </c>
       <c r="D24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1188,21 +1326,21 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1210,21 +1348,24 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="10" t="s">
         <v>27</v>
       </c>
+      <c r="C28" t="s">
+        <v>126</v>
+      </c>
       <c r="D28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1232,32 +1373,38 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="10" t="s">
         <v>29</v>
       </c>
+      <c r="C30" t="s">
+        <v>131</v>
+      </c>
       <c r="D30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="C31" t="s">
+        <v>138</v>
+      </c>
       <c r="D31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1265,26 +1412,26 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1292,39 +1439,42 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1332,7 +1482,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1340,7 +1490,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1348,66 +1498,66 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="15" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>42</v>
       </c>
@@ -1418,7 +1568,7 @@
         <v>45</v>
       </c>
       <c r="E51" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F51" t="s">
         <v>44</v>
@@ -1427,7 +1577,7 @@
         <v>45</v>
       </c>
       <c r="I51" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J51" t="s">
         <v>44</v>
@@ -1436,10 +1586,10 @@
         <v>45</v>
       </c>
       <c r="M51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>47</v>
       </c>
@@ -1453,24 +1603,24 @@
         <v>49</v>
       </c>
       <c r="F52" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="G52">
         <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J52">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>46</v>
       </c>
-      <c r="B53">
-        <v>1.8</v>
+      <c r="B53" t="s">
+        <v>127</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -1479,19 +1629,19 @@
         <v>50</v>
       </c>
       <c r="F53" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="G53">
         <v>3</v>
       </c>
       <c r="I53" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J53">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -1505,21 +1655,21 @@
         <v>51</v>
       </c>
       <c r="F54" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="G54">
         <v>4</v>
       </c>
       <c r="I54" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J54">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -1530,19 +1680,25 @@
       <c r="E55" t="s">
         <v>52</v>
       </c>
-      <c r="F55">
-        <v>1</v>
+      <c r="F55" t="s">
+        <v>133</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I55" t="s">
+        <v>139</v>
+      </c>
+      <c r="J55">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1551,15 +1707,15 @@
         <v>53</v>
       </c>
       <c r="F56" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G56">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -1571,15 +1727,15 @@
         <v>54</v>
       </c>
       <c r="F57" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="G57">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B58">
         <v>33</v>
@@ -1588,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F58">
         <v>3</v>
@@ -1597,9 +1753,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B59">
         <v>6.16</v>
@@ -1608,18 +1764,18 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>66</v>
-      </c>
-      <c r="F59">
-        <v>3.8</v>
+        <v>64</v>
+      </c>
+      <c r="F59" t="s">
+        <v>125</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B60">
         <v>6</v>
@@ -1628,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F60">
         <v>3</v>
@@ -1637,15 +1793,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B61">
         <v>14</v>
       </c>
       <c r="E61" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F61">
         <v>4</v>
@@ -1654,32 +1810,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B62">
-        <v>14</v>
+        <v>14.37</v>
       </c>
       <c r="E62" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F62" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="G62">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B63">
         <v>14</v>
       </c>
       <c r="E63" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F63">
         <v>33</v>
@@ -1688,49 +1844,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B64">
         <v>16</v>
       </c>
       <c r="E64" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F64" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="G64">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B65">
         <v>16</v>
       </c>
       <c r="E65" t="s">
-        <v>76</v>
-      </c>
-      <c r="F65">
-        <v>33.799999999999997</v>
+        <v>74</v>
+      </c>
+      <c r="F65" t="s">
+        <v>148</v>
       </c>
       <c r="G65">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>116</v>
-      </c>
-      <c r="B66">
-        <v>20</v>
+        <v>112</v>
+      </c>
+      <c r="B66" t="s">
+        <v>152</v>
       </c>
       <c r="E66" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F66">
         <v>6</v>
@@ -1739,15 +1895,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B67">
         <v>20</v>
       </c>
       <c r="E67" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F67">
         <v>6</v>
@@ -1756,15 +1912,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>120</v>
-      </c>
-      <c r="B68">
-        <v>20</v>
+        <v>114</v>
+      </c>
+      <c r="B68" t="s">
+        <v>153</v>
       </c>
       <c r="E68" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F68">
         <v>6.2</v>
@@ -1773,9 +1929,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69">
+        <v>30</v>
+      </c>
       <c r="E69" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F69">
         <v>6</v>
@@ -1784,9 +1946,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70">
+        <v>30</v>
+      </c>
       <c r="E70" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F70">
         <v>8.15</v>
@@ -1795,9 +1963,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71">
+        <v>30</v>
+      </c>
       <c r="E71" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F71">
         <v>8</v>
@@ -1806,9 +1980,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72">
+        <v>30</v>
+      </c>
       <c r="E72" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F72">
         <v>14</v>
@@ -1817,9 +1997,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73">
+        <v>32</v>
+      </c>
       <c r="E73" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F73">
         <v>14</v>
@@ -1828,20 +2014,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74">
+        <v>32</v>
+      </c>
       <c r="E74" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F74">
-        <v>14</v>
+        <v>14.29</v>
       </c>
       <c r="G74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F75">
         <v>14</v>
@@ -1850,9 +2042,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F76">
         <v>14</v>
@@ -1861,9 +2053,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E77" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F77">
         <v>15</v>
@@ -1872,9 +2064,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F78">
         <v>15</v>
@@ -1883,58 +2075,257 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>70</v>
-      </c>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F79">
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>71</v>
-      </c>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E80" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F80">
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F81">
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E82" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F82">
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E83" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F83">
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F84">
         <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E85" t="s">
+        <v>124</v>
+      </c>
+      <c r="F85">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
+        <v>129</v>
+      </c>
+      <c r="F86">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>130</v>
+      </c>
+      <c r="F87">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
+        <v>135</v>
+      </c>
+      <c r="F88">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
+        <v>136</v>
+      </c>
+      <c r="F89">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E90" t="s">
+        <v>137</v>
+      </c>
+      <c r="F90">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E91" t="s">
+        <v>154</v>
+      </c>
+      <c r="F91">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>43</v>
+      </c>
+      <c r="B107" t="s">
+        <v>158</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>3</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C110" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>4</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>5</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>6</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>7</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C114" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>8</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>9</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>10</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C117" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>11</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>12</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>13</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1987,6 +2378,19 @@
     <hyperlink ref="B41" r:id="rId38" location="record-1-0" xr:uid="{6AE31A1A-8D9A-4F3B-B8B3-34064C0645FC}"/>
     <hyperlink ref="B42" r:id="rId39" location="record-1-0" xr:uid="{00F284E8-BB1C-44AA-B09D-D7B8623A5382}"/>
     <hyperlink ref="B40" r:id="rId40" location="record-1-0" xr:uid="{5F2089D9-76F7-4283-BB7C-7058F42AD287}"/>
+    <hyperlink ref="B108" r:id="rId41" xr:uid="{73919048-AE22-4CAD-8A8A-DFDAF88FF3F4}"/>
+    <hyperlink ref="B109" r:id="rId42" xr:uid="{EE5532AF-70E8-4D67-B296-44DAA26B679B}"/>
+    <hyperlink ref="B110" r:id="rId43" xr:uid="{AD9226B8-E824-4DD0-865C-38CC61C82D74}"/>
+    <hyperlink ref="B111" r:id="rId44" xr:uid="{C4FE2EEF-CDD4-4FAE-86CD-7E615F4F8B2E}"/>
+    <hyperlink ref="B112" r:id="rId45" xr:uid="{1F782570-136E-4F8D-BEE3-3BBFBCCB36E9}"/>
+    <hyperlink ref="B113" r:id="rId46" xr:uid="{4B349638-0BED-4A3B-B294-AA4DD018255C}"/>
+    <hyperlink ref="B114" r:id="rId47" xr:uid="{3BF518DF-B30B-41EA-859C-170B2FD02AFD}"/>
+    <hyperlink ref="B115" r:id="rId48" xr:uid="{FADF4025-BC1F-46EA-ABFF-96B1D55F7B56}"/>
+    <hyperlink ref="B116" r:id="rId49" xr:uid="{B29782A5-F70D-4024-8B7A-FDB99A765A82}"/>
+    <hyperlink ref="B117" r:id="rId50" xr:uid="{FA3F899B-E932-468A-B3F7-2F291EF24B0E}"/>
+    <hyperlink ref="B118" r:id="rId51" xr:uid="{4E4B0839-883C-466C-8A68-622D35F0F28A}"/>
+    <hyperlink ref="B119" r:id="rId52" xr:uid="{68F43164-7264-480F-98F4-6F943638F4CB}"/>
+    <hyperlink ref="B120" r:id="rId53" xr:uid="{B6C5958D-2423-46B9-B29B-E9E63C4A3497}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
